--- a/HeroesOfSingaporeSling_Skeleton.xlsx
+++ b/HeroesOfSingaporeSling_Skeleton.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>Obsticle</t>
   </si>
@@ -40,15 +40,9 @@
     <t>Item</t>
   </si>
   <si>
-    <t>abs</t>
-  </si>
-  <si>
     <t>size in inventory</t>
   </si>
   <si>
-    <t>Weapon</t>
-  </si>
-  <si>
     <t>image in inventory</t>
   </si>
   <si>
@@ -64,12 +58,6 @@
     <t>Requires to wear</t>
   </si>
   <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Magical</t>
   </si>
   <si>
@@ -137,13 +125,166 @@
   </si>
   <si>
     <t>Hp</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Характеристика</t>
+  </si>
+  <si>
+    <t>влияе върху</t>
+  </si>
+  <si>
+    <t>Proparties</t>
+  </si>
+  <si>
+    <t>Characteristics</t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>жена, мъж,нещо друго</t>
+  </si>
+  <si>
+    <t>Име</t>
+  </si>
+  <si>
+    <t>Натрупани точки</t>
+  </si>
+  <si>
+    <t>стойност която се изчерпва при ползване на магия</t>
+  </si>
+  <si>
+    <t>стойност за сила</t>
+  </si>
+  <si>
+    <t>CharPoints</t>
+  </si>
+  <si>
+    <t>стойност за Мъдрост</t>
+  </si>
+  <si>
+    <t>стойност за Жизненост</t>
+  </si>
+  <si>
+    <t>стойност за Ловкост</t>
+  </si>
+  <si>
+    <t>брой неизползвани CharPoints</t>
+  </si>
+  <si>
+    <t>Списък с предметите облечени в момента</t>
+  </si>
+  <si>
+    <t>Списък с предметите в инвентара</t>
+  </si>
+  <si>
+    <t>Скелет, зомби, ...</t>
+  </si>
+  <si>
+    <t>Weapon/Armor</t>
+  </si>
+  <si>
+    <t>каската само на главата, меча само в ръката</t>
+  </si>
+  <si>
+    <t>Какво дава на героя Demage, Streinght</t>
+  </si>
+  <si>
+    <t>може да дава няколко неща</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>image when wearing</t>
+  </si>
+  <si>
+    <t>Position To Waer</t>
+  </si>
+  <si>
+    <t>може да има други...</t>
+  </si>
+  <si>
+    <t>Armor, Sword, Axe, Helmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за да го облече нашия герой </t>
+  </si>
+  <si>
+    <t xml:space="preserve">трябва да има 5 Streinght и </t>
+  </si>
+  <si>
+    <t>2 Vitality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class </t>
+  </si>
+  <si>
+    <t>Amulet/Ring</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>mana cost</t>
+  </si>
+  <si>
+    <t>General Spell</t>
+  </si>
+  <si>
+    <t>пасивни или магии от предмет</t>
+  </si>
+  <si>
+    <t>Hero Spells</t>
+  </si>
+  <si>
+    <t>Event to Raise or call delegate</t>
+  </si>
+  <si>
+    <t>Магии по време на битка.</t>
+  </si>
+  <si>
+    <t>Spells</t>
+  </si>
+  <si>
+    <t>Списък с маиите които героят може да използва</t>
+  </si>
+  <si>
+    <t>To be defined...</t>
+  </si>
+  <si>
+    <t>Трябва оточним битките за това.</t>
+  </si>
+  <si>
+    <t>Teleport, Heal, Restore Mana, …</t>
+  </si>
+  <si>
+    <t>Scroll, potion, Charm …</t>
+  </si>
+  <si>
+    <t>Delegate or event ??? To be defined</t>
+  </si>
+  <si>
+    <t>Мисля както Иван Димитров предложи да използваме Serilization</t>
+  </si>
+  <si>
+    <t>за Save &amp; Load Game…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +292,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,12 +332,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -260,13 +435,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -277,11 +645,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="2" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -302,13 +722,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -349,13 +769,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -394,16 +814,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -412,55 +832,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8839200" y="3457575"/>
-          <a:ext cx="1247775" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10125075" y="3476625"/>
-          <a:ext cx="66675" cy="381000"/>
+          <a:off x="10582275" y="3448050"/>
+          <a:ext cx="1409700" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -490,13 +863,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -537,13 +910,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -553,8 +926,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4257675" y="2000250"/>
-          <a:ext cx="1162050" cy="666750"/>
+          <a:off x="6162675" y="771525"/>
+          <a:ext cx="1419225" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -584,13 +957,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -631,13 +1004,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -649,6 +1022,241 @@
         <a:xfrm flipV="1">
           <a:off x="2828925" y="3467100"/>
           <a:ext cx="1038225" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="3943350"/>
+          <a:ext cx="1304925" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12687300" y="1819275"/>
+          <a:ext cx="1076325" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12868275" y="1943100"/>
+          <a:ext cx="914400" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8905875" y="10134600"/>
+          <a:ext cx="1133475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7200900" y="10153650"/>
+          <a:ext cx="1352550" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -964,449 +1572,913 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V38"/>
+  <dimension ref="B1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="43"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="E15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="37"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="39"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="C19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="2:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="39"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="L23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="39"/>
+      <c r="N23" s="5"/>
+      <c r="P23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="L24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="P24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="L25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="L26" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="J32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J9" s="1"/>
-      <c r="K9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" t="s">
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="H37" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="35"/>
+      <c r="L37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" s="18"/>
+      <c r="O37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="T13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-      <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="O16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="F17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="J17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
-      <c r="O17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="20" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-      <c r="E21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="L22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="6"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="6"/>
-      <c r="T22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="5"/>
-      <c r="V22" s="6"/>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="H23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="L23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="6"/>
-      <c r="T23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U23" s="5"/>
-      <c r="V23" s="6"/>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="L24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="6"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="6"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="6"/>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="L25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="6"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="6"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="6"/>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="6"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="6"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="6"/>
-    </row>
-    <row r="27" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="9"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="9"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="9"/>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="5"/>
+      <c r="O38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="6"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>